--- a/docs/Prof_Christiane/FINANCEIRO/16/Análise de Eventos_FINANCEIRO.xlsx
+++ b/docs/Prof_Christiane/FINANCEIRO/16/Análise de Eventos_FINANCEIRO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca Gama Costa\Pictures\16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca Gama Costa\Downloads\ANÁLISES\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -260,7 +260,7 @@
     <t>Gerente realiza o pagamento do salário para os funcionários</t>
   </si>
   <si>
-    <t>Gerente armazena numa pasta de contas a pagar todas as notas fiscais</t>
+    <t>Gerente armazena numa pasta de notas fiscais todas as notas fiscais</t>
   </si>
 </sst>
 </file>
@@ -523,6 +523,45 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,15 +605,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,36 +612,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,22 +925,22 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -967,10 +967,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5">
@@ -989,8 +989,8 @@
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="5">
         <v>2</v>
       </c>
@@ -1007,8 +1007,8 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="5">
         <v>3</v>
       </c>
@@ -1025,8 +1025,8 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="55"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="5">
         <v>4</v>
       </c>
@@ -1043,8 +1043,8 @@
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="5">
         <v>5</v>
       </c>
@@ -1061,8 +1061,8 @@
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5">
         <v>6</v>
       </c>
@@ -1079,8 +1079,8 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="54" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6">
@@ -1099,8 +1099,8 @@
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="5">
         <v>8</v>
       </c>
@@ -1117,10 +1117,10 @@
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8">
@@ -1139,8 +1139,8 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="8">
         <v>2</v>
       </c>
@@ -1157,8 +1157,8 @@
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="8">
         <v>3</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="10"/>
       <c r="C14" s="8">
         <v>4</v>
@@ -1193,7 +1193,7 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
@@ -1213,10 +1213,10 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5">
@@ -1235,8 +1235,8 @@
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="5">
         <v>2</v>
       </c>
@@ -1253,8 +1253,8 @@
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
-      <c r="B18" s="42"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="5">
         <v>3</v>
       </c>
@@ -1271,8 +1271,8 @@
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="42"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="5">
         <v>4</v>
       </c>
@@ -1289,8 +1289,8 @@
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
-      <c r="B20" s="42"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="5">
         <v>5</v>
       </c>
@@ -1307,8 +1307,8 @@
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="5">
         <v>6</v>
       </c>
@@ -1325,8 +1325,8 @@
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="29" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="5">
@@ -1345,8 +1345,8 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="5">
         <v>8</v>
       </c>
@@ -1363,10 +1363,10 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="5">
@@ -1385,8 +1385,8 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="42"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="5">
         <v>2</v>
       </c>
@@ -1403,8 +1403,8 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="42"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="5">
         <v>3</v>
       </c>
@@ -1421,8 +1421,8 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="42"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="5">
         <v>4</v>
       </c>
@@ -1439,7 +1439,7 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1459,10 +1459,10 @@
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="30" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="5">
@@ -1481,8 +1481,8 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="5">
         <v>2</v>
       </c>
@@ -1499,8 +1499,8 @@
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="43"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="5">
         <v>3</v>
       </c>
@@ -1517,8 +1517,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="44" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="54" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="5">
@@ -1537,8 +1537,8 @@
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="5">
         <v>5</v>
       </c>
@@ -1555,8 +1555,8 @@
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="5">
         <v>6</v>
       </c>
@@ -1573,10 +1573,10 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+      <c r="A35" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="5">
@@ -1595,8 +1595,8 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="42"/>
+      <c r="A36" s="47"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="5">
         <v>2</v>
       </c>
@@ -1613,8 +1613,8 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="43"/>
+      <c r="A37" s="47"/>
+      <c r="B37" s="31"/>
       <c r="C37" s="5">
         <v>3</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
@@ -1651,10 +1651,10 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="5">
@@ -1673,8 +1673,8 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="50"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="5">
         <v>2</v>
       </c>
@@ -1691,8 +1691,8 @@
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="43"/>
+      <c r="A41" s="50"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="5">
         <v>3</v>
       </c>
@@ -1709,7 +1709,7 @@
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="50"/>
       <c r="B42" s="5" t="s">
         <v>13</v>
       </c>
@@ -1730,15 +1730,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A38"/>
@@ -1750,6 +1741,15 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B24:B27"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1761,7 +1761,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,22 +1780,22 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1822,10 +1822,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="37" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="16">
@@ -1844,8 +1844,8 @@
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="55"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="16">
         <v>2</v>
       </c>
@@ -1862,10 +1862,10 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="17">
@@ -1884,8 +1884,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="17">
         <v>4</v>
       </c>
@@ -1902,8 +1902,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="17">
         <v>5</v>
       </c>
@@ -1920,7 +1920,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="34" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="57" t="s">
@@ -1942,7 +1942,7 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="57"/>
       <c r="C9" s="17">
         <v>7</v>

--- a/docs/Prof_Christiane/FINANCEIRO/16/Análise de Eventos_FINANCEIRO.xlsx
+++ b/docs/Prof_Christiane/FINANCEIRO/16/Análise de Eventos_FINANCEIRO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca Gama Costa\Downloads\ANÁLISES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bianca Gama Costa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
   <si>
     <t>Capacidades</t>
   </si>
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,23 +505,74 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,15 +580,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -561,57 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,22 +916,22 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -967,10 +958,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="5">
@@ -989,8 +980,8 @@
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="5">
         <v>2</v>
       </c>
@@ -1007,8 +998,8 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="5">
         <v>3</v>
       </c>
@@ -1025,8 +1016,8 @@
       <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="5">
         <v>4</v>
       </c>
@@ -1043,8 +1034,8 @@
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="5">
         <v>5</v>
       </c>
@@ -1061,8 +1052,8 @@
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="5">
         <v>6</v>
       </c>
@@ -1079,8 +1070,8 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="37" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="51" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="6">
@@ -1099,8 +1090,8 @@
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="5">
         <v>8</v>
       </c>
@@ -1117,10 +1108,10 @@
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="8">
@@ -1139,8 +1130,8 @@
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="51"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="8">
         <v>2</v>
       </c>
@@ -1157,8 +1148,8 @@
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="8">
         <v>3</v>
       </c>
@@ -1175,7 +1166,7 @@
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="10"/>
       <c r="C14" s="8">
         <v>4</v>
@@ -1193,7 +1184,7 @@
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
@@ -1213,10 +1204,10 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5">
@@ -1235,8 +1226,8 @@
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="5">
         <v>2</v>
       </c>
@@ -1253,8 +1244,8 @@
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5">
         <v>3</v>
       </c>
@@ -1271,8 +1262,8 @@
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="30"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="5">
         <v>4</v>
       </c>
@@ -1289,8 +1280,8 @@
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="30"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="5">
         <v>5</v>
       </c>
@@ -1307,8 +1298,8 @@
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="5">
         <v>6</v>
       </c>
@@ -1325,8 +1316,8 @@
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="29" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="38" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="5">
@@ -1345,8 +1336,8 @@
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="5">
         <v>8</v>
       </c>
@@ -1363,10 +1354,10 @@
       <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="5">
@@ -1385,8 +1376,8 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="30"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="5">
         <v>2</v>
       </c>
@@ -1403,8 +1394,8 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="30"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="5">
         <v>3</v>
       </c>
@@ -1421,8 +1412,8 @@
       <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="30"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="5">
         <v>4</v>
       </c>
@@ -1439,7 +1430,7 @@
       <c r="J27" s="14"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
@@ -1459,10 +1450,10 @@
       <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="5">
@@ -1481,8 +1472,8 @@
       <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="30"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="5">
         <v>2</v>
       </c>
@@ -1499,8 +1490,8 @@
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="31"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="5">
         <v>3</v>
       </c>
@@ -1517,8 +1508,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="54" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="5">
@@ -1537,8 +1528,8 @@
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="55"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="5">
         <v>5</v>
       </c>
@@ -1555,8 +1546,8 @@
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="5">
         <v>6</v>
       </c>
@@ -1573,10 +1564,10 @@
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="5">
@@ -1595,8 +1586,8 @@
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
-      <c r="B36" s="30"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="5">
         <v>2</v>
       </c>
@@ -1613,8 +1604,8 @@
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
-      <c r="B37" s="31"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="40"/>
       <c r="C37" s="5">
         <v>3</v>
       </c>
@@ -1631,7 +1622,7 @@
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="5" t="s">
         <v>13</v>
       </c>
@@ -1651,10 +1642,10 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="5">
@@ -1673,8 +1664,8 @@
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="30"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="5">
         <v>2</v>
       </c>
@@ -1691,8 +1682,8 @@
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="31"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="5">
         <v>3</v>
       </c>
@@ -1709,7 +1700,7 @@
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="5" t="s">
         <v>13</v>
       </c>
@@ -1730,6 +1721,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A34"/>
     <mergeCell ref="A35:A38"/>
@@ -1741,15 +1741,6 @@
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A16:A23"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1761,7 +1752,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,22 +1771,22 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
@@ -1822,10 +1813,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="16">
@@ -1844,8 +1835,8 @@
       <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="16">
         <v>2</v>
       </c>
@@ -1862,10 +1853,10 @@
       <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="17">
@@ -1884,8 +1875,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="17">
         <v>4</v>
       </c>
@@ -1902,8 +1893,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="51"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="17">
         <v>5</v>
       </c>
@@ -1920,10 +1911,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="54" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="17">
@@ -1942,8 +1933,8 @@
       <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="17">
         <v>7</v>
       </c>
@@ -1960,10 +1951,10 @@
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="17">
@@ -1982,7 +1973,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="16" t="s">
@@ -2004,10 +1995,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="17">
@@ -2028,12 +2019,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="27"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="17">
         <v>11</v>
       </c>
@@ -2050,7 +2037,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="E1:F1"/>
